--- a/data/pca/factorExposure/factorExposure_2010-04-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-01.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01541984560925414</v>
+        <v>-0.01699633495724252</v>
       </c>
       <c r="C2">
-        <v>-0.005042064646414081</v>
+        <v>-0.001005540407067903</v>
       </c>
       <c r="D2">
-        <v>0.01390232236434094</v>
+        <v>-0.008458864933996059</v>
       </c>
       <c r="E2">
-        <v>0.01047485642574027</v>
+        <v>5.745699773787135e-05</v>
       </c>
       <c r="F2">
-        <v>-0.01616515042019293</v>
+        <v>-0.01019924535443152</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1198408700878135</v>
+        <v>-0.09337311963350245</v>
       </c>
       <c r="C4">
-        <v>0.07085236695005151</v>
+        <v>-0.01612322444817964</v>
       </c>
       <c r="D4">
-        <v>0.007574283379537526</v>
+        <v>-0.08454417036182801</v>
       </c>
       <c r="E4">
-        <v>-0.006590093451669107</v>
+        <v>-0.03081083412885396</v>
       </c>
       <c r="F4">
-        <v>0.006304343003802585</v>
+        <v>0.03125647336333199</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.118567103417041</v>
+        <v>-0.1545992438438936</v>
       </c>
       <c r="C6">
-        <v>-0.008254366665869317</v>
+        <v>-0.0245736419255957</v>
       </c>
       <c r="D6">
-        <v>0.01169635398295232</v>
+        <v>0.0220870124903702</v>
       </c>
       <c r="E6">
-        <v>0.03096291441667406</v>
+        <v>-0.008279103273474113</v>
       </c>
       <c r="F6">
-        <v>0.05641818267656917</v>
+        <v>0.04774678995183086</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07373329537822974</v>
+        <v>-0.05904421220195398</v>
       </c>
       <c r="C7">
-        <v>0.06790084854508104</v>
+        <v>0.0007476087674796478</v>
       </c>
       <c r="D7">
-        <v>0.03379358960516037</v>
+        <v>-0.05227812769604435</v>
       </c>
       <c r="E7">
-        <v>0.02200325553563148</v>
+        <v>-0.01541447142323475</v>
       </c>
       <c r="F7">
-        <v>-0.03554649175030981</v>
+        <v>0.04978726626589308</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0530122938514444</v>
+        <v>-0.05779288383663957</v>
       </c>
       <c r="C8">
-        <v>0.02935151650967225</v>
+        <v>0.01312942385878914</v>
       </c>
       <c r="D8">
-        <v>0.01812363344886718</v>
+        <v>-0.03250767227617947</v>
       </c>
       <c r="E8">
-        <v>-0.008969587832797598</v>
+        <v>-0.01596372117850594</v>
       </c>
       <c r="F8">
-        <v>0.02471702016720968</v>
+        <v>-0.02946413104680594</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08633172276434005</v>
+        <v>-0.07116805334904205</v>
       </c>
       <c r="C9">
-        <v>0.05963146500837135</v>
+        <v>-0.01215267186924342</v>
       </c>
       <c r="D9">
-        <v>0.01472255022366114</v>
+        <v>-0.08384907409289723</v>
       </c>
       <c r="E9">
-        <v>-0.01602337083838975</v>
+        <v>-0.02515340961599079</v>
       </c>
       <c r="F9">
-        <v>-0.005620378688401128</v>
+        <v>0.05308831398139283</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1049558458750195</v>
+        <v>-0.09546358795005665</v>
       </c>
       <c r="C10">
-        <v>-0.1745219236896428</v>
+        <v>-0.01773734102011964</v>
       </c>
       <c r="D10">
-        <v>-0.008445619896944359</v>
+        <v>0.1715623561923457</v>
       </c>
       <c r="E10">
-        <v>0.008959725244108405</v>
+        <v>0.04033711939863768</v>
       </c>
       <c r="F10">
-        <v>-0.04626999722489157</v>
+        <v>-0.05356611008219865</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07970274232775396</v>
+        <v>-0.08738866218323812</v>
       </c>
       <c r="C11">
-        <v>0.05699617077424439</v>
+        <v>-0.01162666139063146</v>
       </c>
       <c r="D11">
-        <v>0.026612094052703</v>
+        <v>-0.1145001371147476</v>
       </c>
       <c r="E11">
-        <v>-0.02013061970986477</v>
+        <v>-0.04984586932165917</v>
       </c>
       <c r="F11">
-        <v>0.01130985534225177</v>
+        <v>0.01972689956469635</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08189720025430547</v>
+        <v>-0.091960381413555</v>
       </c>
       <c r="C12">
-        <v>0.08123304031381137</v>
+        <v>-0.009243374217145264</v>
       </c>
       <c r="D12">
-        <v>0.03813059024000642</v>
+        <v>-0.1233013343079868</v>
       </c>
       <c r="E12">
-        <v>-0.0641455513076961</v>
+        <v>-0.04891166242163385</v>
       </c>
       <c r="F12">
-        <v>-0.01804894456367279</v>
+        <v>0.01985606579893881</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03001644238960028</v>
+        <v>-0.04284872137857371</v>
       </c>
       <c r="C13">
-        <v>0.0288312564537291</v>
+        <v>-0.003798960334298743</v>
       </c>
       <c r="D13">
-        <v>0.009043081710832455</v>
+        <v>-0.04741717308190968</v>
       </c>
       <c r="E13">
-        <v>0.01927698380040496</v>
+        <v>0.01107075260961373</v>
       </c>
       <c r="F13">
-        <v>-0.01323292288860113</v>
+        <v>0.01325773919497227</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03638409874251924</v>
+        <v>-0.02226421627099476</v>
       </c>
       <c r="C14">
-        <v>0.0190530987637699</v>
+        <v>-0.01432361588704914</v>
       </c>
       <c r="D14">
-        <v>-0.005386537782986423</v>
+        <v>-0.03120999036660654</v>
       </c>
       <c r="E14">
-        <v>-0.02195663451594518</v>
+        <v>-0.01905379994919619</v>
       </c>
       <c r="F14">
-        <v>0.004841815809937577</v>
+        <v>0.01795005126043465</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01704263029838938</v>
+        <v>-0.03144481970970898</v>
       </c>
       <c r="C15">
-        <v>0.00853009778506654</v>
+        <v>-0.005441589293597539</v>
       </c>
       <c r="D15">
-        <v>0.01250681909813192</v>
+        <v>-0.044963496271031</v>
       </c>
       <c r="E15">
-        <v>0.04455787304409815</v>
+        <v>-0.009253107915658752</v>
       </c>
       <c r="F15">
-        <v>-0.01828376088014027</v>
+        <v>0.02971436917956588</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08656112499975964</v>
+        <v>-0.07312202686451587</v>
       </c>
       <c r="C16">
-        <v>0.06640664737856884</v>
+        <v>-0.003106074099028535</v>
       </c>
       <c r="D16">
-        <v>0.03029460932013391</v>
+        <v>-0.1181150139321458</v>
       </c>
       <c r="E16">
-        <v>-0.04366790417487535</v>
+        <v>-0.06420624807752315</v>
       </c>
       <c r="F16">
-        <v>0.005634308744886424</v>
+        <v>0.02830506329927671</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.0234202479966574</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003407486324802554</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01807267057053882</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.008626143451445904</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.01690820032506826</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04742167767749839</v>
+        <v>-0.06077434775630098</v>
       </c>
       <c r="C20">
-        <v>0.03063319538183595</v>
+        <v>-0.0006999978749154457</v>
       </c>
       <c r="D20">
-        <v>-0.01675057773197135</v>
+        <v>-0.07455303852935335</v>
       </c>
       <c r="E20">
-        <v>0.02692781968350414</v>
+        <v>-0.05591942322375458</v>
       </c>
       <c r="F20">
-        <v>-0.007637702205145794</v>
+        <v>0.02698184783587605</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02899294372764898</v>
+        <v>-0.03865025551243154</v>
       </c>
       <c r="C21">
-        <v>0.00862959376200478</v>
+        <v>-0.006935797301322283</v>
       </c>
       <c r="D21">
-        <v>-0.0203184135462145</v>
+        <v>-0.03644094929514628</v>
       </c>
       <c r="E21">
-        <v>-0.01383705715845906</v>
+        <v>0.007542757096591967</v>
       </c>
       <c r="F21">
-        <v>0.01948425000516264</v>
+        <v>-0.02077307740891689</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02960265222705664</v>
+        <v>-0.04330293482791438</v>
       </c>
       <c r="C22">
-        <v>-0.01824418434131478</v>
+        <v>-0.0003733553050274963</v>
       </c>
       <c r="D22">
-        <v>0.05308966589299179</v>
+        <v>-0.0001608574904932643</v>
       </c>
       <c r="E22">
-        <v>0.6034815517241597</v>
+        <v>-0.02924954079883316</v>
       </c>
       <c r="F22">
-        <v>-0.1744028966814541</v>
+        <v>-0.007201825675929244</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.02982935506863803</v>
+        <v>-0.04335690280927079</v>
       </c>
       <c r="C23">
-        <v>-0.01771545473343286</v>
+        <v>-0.0003956341763942635</v>
       </c>
       <c r="D23">
-        <v>0.05431370163454773</v>
+        <v>-0.0002879639370109373</v>
       </c>
       <c r="E23">
-        <v>0.6068438497744986</v>
+        <v>-0.02960932766725554</v>
       </c>
       <c r="F23">
-        <v>-0.1732374490032593</v>
+        <v>-0.006746832757858296</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08714280179088975</v>
+        <v>-0.07953385115504084</v>
       </c>
       <c r="C24">
-        <v>0.06558288988099828</v>
+        <v>-0.003341473866636701</v>
       </c>
       <c r="D24">
-        <v>0.01626385139457479</v>
+        <v>-0.1187278615882222</v>
       </c>
       <c r="E24">
-        <v>-0.03459405913795977</v>
+        <v>-0.05198258351066858</v>
       </c>
       <c r="F24">
-        <v>-0.001431668737851399</v>
+        <v>0.02101541037285638</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09185974760094817</v>
+        <v>-0.08451745159088485</v>
       </c>
       <c r="C25">
-        <v>0.06189985379230369</v>
+        <v>-0.005453298795968621</v>
       </c>
       <c r="D25">
-        <v>0.03332433740222931</v>
+        <v>-0.1072274886714099</v>
       </c>
       <c r="E25">
-        <v>-0.06608288346356103</v>
+        <v>-0.03490594868174502</v>
       </c>
       <c r="F25">
-        <v>-0.01351915618340022</v>
+        <v>0.02882514212611974</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.03717164476396304</v>
+        <v>-0.05422730392174548</v>
       </c>
       <c r="C26">
-        <v>-0.01806762360894383</v>
+        <v>-0.01493289779724022</v>
       </c>
       <c r="D26">
-        <v>-0.0168787041502492</v>
+        <v>-0.03799410469239667</v>
       </c>
       <c r="E26">
-        <v>0.01453928630088852</v>
+        <v>-0.02813978415484815</v>
       </c>
       <c r="F26">
-        <v>0.02586669541368353</v>
+        <v>-0.01257025180757753</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1121754929902005</v>
+        <v>-0.1438118157315508</v>
       </c>
       <c r="C28">
-        <v>-0.3183402002118058</v>
+        <v>-0.01612182476113586</v>
       </c>
       <c r="D28">
-        <v>0.01968571258108963</v>
+        <v>0.2656513038367542</v>
       </c>
       <c r="E28">
-        <v>-0.03249502107825299</v>
+        <v>0.06957405976246046</v>
       </c>
       <c r="F28">
-        <v>0.007950573960312891</v>
+        <v>0.02913077537489199</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.0309696976320059</v>
+        <v>-0.02703960712748972</v>
       </c>
       <c r="C29">
-        <v>0.01514008699309268</v>
+        <v>-0.00879644598454858</v>
       </c>
       <c r="D29">
-        <v>0.002368621481643248</v>
+        <v>-0.02981058860825638</v>
       </c>
       <c r="E29">
-        <v>-0.03895117349763456</v>
+        <v>-0.01211915011070434</v>
       </c>
       <c r="F29">
-        <v>-0.03061177061188423</v>
+        <v>-0.01365571876034192</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.102171951802954</v>
+        <v>-0.06233949575057038</v>
       </c>
       <c r="C30">
-        <v>0.08695229937099502</v>
+        <v>-0.004562777617093822</v>
       </c>
       <c r="D30">
-        <v>0.03806587997752606</v>
+        <v>-0.08666346700653076</v>
       </c>
       <c r="E30">
-        <v>-0.04727536805358575</v>
+        <v>-0.02540939235998076</v>
       </c>
       <c r="F30">
-        <v>0.05362203619571927</v>
+        <v>0.1041551907450516</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02918917037596075</v>
+        <v>-0.04818173210178246</v>
       </c>
       <c r="C31">
-        <v>0.03005435674285976</v>
+        <v>-0.01495366084833428</v>
       </c>
       <c r="D31">
-        <v>-0.00236795391948177</v>
+        <v>-0.02795048686470884</v>
       </c>
       <c r="E31">
-        <v>0.002470217893850592</v>
+        <v>-0.027390393670734</v>
       </c>
       <c r="F31">
-        <v>-0.002093607019378518</v>
+        <v>-0.005457004365543992</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05893395091379085</v>
+        <v>-0.04786479538417703</v>
       </c>
       <c r="C32">
-        <v>0.01184667632265872</v>
+        <v>0.0002464203433128835</v>
       </c>
       <c r="D32">
-        <v>-0.0160144681600187</v>
+        <v>-0.03062170172016384</v>
       </c>
       <c r="E32">
-        <v>-0.06880650119849363</v>
+        <v>-0.02987717598904744</v>
       </c>
       <c r="F32">
-        <v>0.07722112685803113</v>
+        <v>0.002096649738578935</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09601535822650845</v>
+        <v>-0.08957076707098448</v>
       </c>
       <c r="C33">
-        <v>0.07071420547968249</v>
+        <v>-0.008842089308610164</v>
       </c>
       <c r="D33">
-        <v>0.07793819801699192</v>
+        <v>-0.09598322433627181</v>
       </c>
       <c r="E33">
-        <v>-0.02563596427475242</v>
+        <v>-0.04755917497859079</v>
       </c>
       <c r="F33">
-        <v>-0.01000821908637405</v>
+        <v>0.0407301548297873</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07385632972344591</v>
+        <v>-0.06728907817531977</v>
       </c>
       <c r="C34">
-        <v>0.05737759198934922</v>
+        <v>-0.01181569043841051</v>
       </c>
       <c r="D34">
-        <v>0.02243466965593667</v>
+        <v>-0.09875682455881962</v>
       </c>
       <c r="E34">
-        <v>-0.03837202811364773</v>
+        <v>-0.03619814639601176</v>
       </c>
       <c r="F34">
-        <v>-0.004041306252505024</v>
+        <v>0.03857724175082019</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.009659558051886178</v>
+        <v>-0.024408482393581</v>
       </c>
       <c r="C35">
-        <v>0.01416407694629778</v>
+        <v>-0.002457345045776574</v>
       </c>
       <c r="D35">
-        <v>0.004188438404852681</v>
+        <v>-0.01125146735477423</v>
       </c>
       <c r="E35">
-        <v>-0.00423981320964733</v>
+        <v>-0.01107467428974312</v>
       </c>
       <c r="F35">
-        <v>-0.01353981464635327</v>
+        <v>0.009162877037101986</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02629530071820524</v>
+        <v>-0.02433110971145597</v>
       </c>
       <c r="C36">
-        <v>0.009531374542205817</v>
+        <v>-0.007267981282730975</v>
       </c>
       <c r="D36">
-        <v>0.007896220290094102</v>
+        <v>-0.03724527134306258</v>
       </c>
       <c r="E36">
-        <v>0.008510557934560669</v>
+        <v>-0.01812856875188888</v>
       </c>
       <c r="F36">
-        <v>0.01172761646805076</v>
+        <v>0.01334987267981356</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.007719150366034047</v>
+        <v>-0.001524073697044684</v>
       </c>
       <c r="C38">
-        <v>0.007590976030462369</v>
+        <v>-0.0002493254371416239</v>
       </c>
       <c r="D38">
-        <v>0.006663025322940984</v>
+        <v>-0.0008300218469330902</v>
       </c>
       <c r="E38">
-        <v>0.01888002635149021</v>
+        <v>-0.001137328411391393</v>
       </c>
       <c r="F38">
-        <v>-0.03229343033443587</v>
+        <v>-0.0008951785742893423</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1267518381292272</v>
+        <v>-0.1076936848626746</v>
       </c>
       <c r="C39">
-        <v>0.1183458659342375</v>
+        <v>-0.01684522414639859</v>
       </c>
       <c r="D39">
-        <v>0.06553910443482924</v>
+        <v>-0.1550698926371926</v>
       </c>
       <c r="E39">
-        <v>-0.1448114309687252</v>
+        <v>-0.06278697210434912</v>
       </c>
       <c r="F39">
-        <v>-0.0005175965853003223</v>
+        <v>0.02460376328491655</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.007427152698234592</v>
+        <v>-0.03704040072962107</v>
       </c>
       <c r="C40">
-        <v>0.02911082132487706</v>
+        <v>-0.007314658032917028</v>
       </c>
       <c r="D40">
-        <v>-0.01008844633278109</v>
+        <v>-0.03161768911313464</v>
       </c>
       <c r="E40">
-        <v>0.0668365329879882</v>
+        <v>-0.003609051993679253</v>
       </c>
       <c r="F40">
-        <v>-0.03832565636775364</v>
+        <v>-0.01353083773674299</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02511734872198701</v>
+        <v>-0.02633931133728425</v>
       </c>
       <c r="C41">
-        <v>0.0006529091783629241</v>
+        <v>-0.006577681700166613</v>
       </c>
       <c r="D41">
-        <v>-0.006840764618814313</v>
+        <v>-0.01164201445094389</v>
       </c>
       <c r="E41">
-        <v>-0.007109977573712598</v>
+        <v>-0.0127040207323743</v>
       </c>
       <c r="F41">
-        <v>-0.006895203419606892</v>
+        <v>-0.008671948388293065</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03641921251444558</v>
+        <v>-0.04047588927864188</v>
       </c>
       <c r="C43">
-        <v>0.005139781106403455</v>
+        <v>-0.006761772343339519</v>
       </c>
       <c r="D43">
-        <v>0.01605305617183619</v>
+        <v>-0.02106937172910712</v>
       </c>
       <c r="E43">
-        <v>-0.00320445583835459</v>
+        <v>-0.02487048387984752</v>
       </c>
       <c r="F43">
-        <v>0.003269395424231953</v>
+        <v>-0.01334313979223695</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1297430023750972</v>
+        <v>-0.07610946689377698</v>
       </c>
       <c r="C44">
-        <v>0.1470849601040146</v>
+        <v>-0.02177084445915605</v>
       </c>
       <c r="D44">
-        <v>0.05378840475271195</v>
+        <v>-0.0944113230270522</v>
       </c>
       <c r="E44">
-        <v>0.08949929036090738</v>
+        <v>-0.07597945510345488</v>
       </c>
       <c r="F44">
-        <v>-0.1111913627196374</v>
+        <v>0.1853900246788902</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01869607971425628</v>
+        <v>-0.02231461871186145</v>
       </c>
       <c r="C46">
-        <v>-0.01241268374376584</v>
+        <v>-0.003823091991290528</v>
       </c>
       <c r="D46">
-        <v>0.02006059526367545</v>
+        <v>-0.01177778383321129</v>
       </c>
       <c r="E46">
-        <v>0.02266111612384602</v>
+        <v>-0.02368771495354</v>
       </c>
       <c r="F46">
-        <v>-0.03119126435336754</v>
+        <v>0.0002707182531383319</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0373913522427964</v>
+        <v>-0.05164265942222043</v>
       </c>
       <c r="C47">
-        <v>0.02457787351056101</v>
+        <v>-0.003264405490658004</v>
       </c>
       <c r="D47">
-        <v>-0.004265824279591141</v>
+        <v>-0.01417604811669062</v>
       </c>
       <c r="E47">
-        <v>-0.007319267546924704</v>
+        <v>-0.02220116645080175</v>
       </c>
       <c r="F47">
-        <v>-6.518350501414113e-05</v>
+        <v>-0.04476383990064433</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0358539893258866</v>
+        <v>-0.04731244031168627</v>
       </c>
       <c r="C48">
-        <v>0.0003025000071496571</v>
+        <v>-0.002822553683768791</v>
       </c>
       <c r="D48">
-        <v>0.006925622424799435</v>
+        <v>-0.04914930106405579</v>
       </c>
       <c r="E48">
-        <v>-0.006167136437350711</v>
+        <v>0.003820704401655675</v>
       </c>
       <c r="F48">
-        <v>-0.002397498161294966</v>
+        <v>0.01014061493858656</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2288890381769614</v>
+        <v>-0.2029025011250057</v>
       </c>
       <c r="C49">
-        <v>-0.007690284444162344</v>
+        <v>-0.01774778270128087</v>
       </c>
       <c r="D49">
-        <v>-0.05072673047496817</v>
+        <v>0.01092557524731916</v>
       </c>
       <c r="E49">
-        <v>-0.02131531921653995</v>
+        <v>-0.03256576956504494</v>
       </c>
       <c r="F49">
-        <v>-0.04882534706839112</v>
+        <v>0.03013564754496918</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03808969590235687</v>
+        <v>-0.04809409618157308</v>
       </c>
       <c r="C50">
-        <v>0.02489088781394345</v>
+        <v>-0.0110835307557598</v>
       </c>
       <c r="D50">
-        <v>-0.008122878782246464</v>
+        <v>-0.02671781631317957</v>
       </c>
       <c r="E50">
-        <v>-0.009907251100043618</v>
+        <v>-0.02991240672587694</v>
       </c>
       <c r="F50">
-        <v>-0.0008104780993998603</v>
+        <v>0.008576676525053912</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01199745049195492</v>
+        <v>-0.002248205993030183</v>
       </c>
       <c r="C51">
-        <v>-0.01676685809441106</v>
+        <v>-0.0005663759528992689</v>
       </c>
       <c r="D51">
-        <v>0.01454850564527023</v>
+        <v>0.002414043705778313</v>
       </c>
       <c r="E51">
-        <v>0.006358630911528113</v>
+        <v>0.0001438863475720064</v>
       </c>
       <c r="F51">
-        <v>-0.01157951562608261</v>
+        <v>0.004808309260578354</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1066021061584073</v>
+        <v>-0.144697453393056</v>
       </c>
       <c r="C52">
-        <v>0.0832791774901589</v>
+        <v>-0.01379367739718207</v>
       </c>
       <c r="D52">
-        <v>0.01701505736384308</v>
+        <v>-0.05170397288490922</v>
       </c>
       <c r="E52">
-        <v>-0.009323724647222295</v>
+        <v>-0.02440046419024676</v>
       </c>
       <c r="F52">
-        <v>-0.01455490010302385</v>
+        <v>0.03316921585221783</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1632012262848169</v>
+        <v>-0.174011024865354</v>
       </c>
       <c r="C53">
-        <v>0.03944750893983044</v>
+        <v>-0.01662217930457674</v>
       </c>
       <c r="D53">
-        <v>0.012212948976438</v>
+        <v>-0.01198489224105106</v>
       </c>
       <c r="E53">
-        <v>0.02245631871097267</v>
+        <v>-0.03555664019233359</v>
       </c>
       <c r="F53">
-        <v>-0.03213311782136776</v>
+        <v>0.06598357001128874</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.04971998689971818</v>
+        <v>-0.02156748513245009</v>
       </c>
       <c r="C54">
-        <v>0.03839991327862503</v>
+        <v>-0.01229115573771985</v>
       </c>
       <c r="D54">
-        <v>0.0006835536918058235</v>
+        <v>-0.03295497797428401</v>
       </c>
       <c r="E54">
-        <v>0.02445936101130171</v>
+        <v>-0.01588615095624857</v>
       </c>
       <c r="F54">
-        <v>-0.004060520020815441</v>
+        <v>-0.005867165074333261</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08337770741167126</v>
+        <v>-0.1143719127325087</v>
       </c>
       <c r="C55">
-        <v>0.02684991817290828</v>
+        <v>-0.01545372492344072</v>
       </c>
       <c r="D55">
-        <v>0.05838108857905779</v>
+        <v>-0.01102741271944013</v>
       </c>
       <c r="E55">
-        <v>-0.02624588283445328</v>
+        <v>-0.03009025037588599</v>
       </c>
       <c r="F55">
-        <v>-0.01099434797301145</v>
+        <v>0.04474440544906338</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1565296966883336</v>
+        <v>-0.1775657483959887</v>
       </c>
       <c r="C56">
-        <v>0.05213388828170969</v>
+        <v>-0.01410034743195536</v>
       </c>
       <c r="D56">
-        <v>0.01966831409080779</v>
+        <v>-0.007805755843143549</v>
       </c>
       <c r="E56">
-        <v>-0.01172254658726864</v>
+        <v>-0.03952320176431543</v>
       </c>
       <c r="F56">
-        <v>-0.05457200664497879</v>
+        <v>0.041166048600278</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04926855217518893</v>
+        <v>-0.04627017419029794</v>
       </c>
       <c r="C58">
-        <v>0.02167907086109612</v>
+        <v>-0.001609681537671105</v>
       </c>
       <c r="D58">
-        <v>-0.002889716003697674</v>
+        <v>-0.06615758218462295</v>
       </c>
       <c r="E58">
-        <v>0.05268567958756901</v>
+        <v>-0.02436634050528307</v>
       </c>
       <c r="F58">
-        <v>-0.02239002941693786</v>
+        <v>-0.04376037565197253</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1765996064330373</v>
+        <v>-0.1727715859492117</v>
       </c>
       <c r="C59">
-        <v>-0.2505767124517225</v>
+        <v>-0.01699182989168805</v>
       </c>
       <c r="D59">
-        <v>0.03931684966836894</v>
+        <v>0.2231485739527991</v>
       </c>
       <c r="E59">
-        <v>-0.04376880605396546</v>
+        <v>0.04940726228108602</v>
       </c>
       <c r="F59">
-        <v>-0.014119413291091</v>
+        <v>-0.03232941951362995</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2737110669489261</v>
+        <v>-0.2359347082900964</v>
       </c>
       <c r="C60">
-        <v>0.1764096221219265</v>
+        <v>0.003903774291735392</v>
       </c>
       <c r="D60">
-        <v>-0.03014621073472116</v>
+        <v>-0.04799731694939745</v>
       </c>
       <c r="E60">
-        <v>-0.06581543308073305</v>
+        <v>-0.007493422844299898</v>
       </c>
       <c r="F60">
-        <v>-0.1800286065143131</v>
+        <v>-0.03143426257494952</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1142870527703938</v>
+        <v>-0.08291121252210996</v>
       </c>
       <c r="C61">
-        <v>0.07143418094071005</v>
+        <v>-0.01303446104020281</v>
       </c>
       <c r="D61">
-        <v>0.04361189470502539</v>
+        <v>-0.1141347283764693</v>
       </c>
       <c r="E61">
-        <v>-0.08858689432147995</v>
+        <v>-0.04283255311678028</v>
       </c>
       <c r="F61">
-        <v>-0.03099105575651849</v>
+        <v>0.01317179323594173</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1562921338832823</v>
+        <v>-0.1701574597247343</v>
       </c>
       <c r="C62">
-        <v>0.04280000607667529</v>
+        <v>-0.0178532950006285</v>
       </c>
       <c r="D62">
-        <v>0.02999653822024517</v>
+        <v>-0.0118295774749805</v>
       </c>
       <c r="E62">
-        <v>0.005629975466414649</v>
+        <v>-0.0365116751107342</v>
       </c>
       <c r="F62">
-        <v>-0.04618889118480649</v>
+        <v>0.0222690771629083</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03675037222264761</v>
+        <v>-0.042454717344924</v>
       </c>
       <c r="C63">
-        <v>-0.008710907316953351</v>
+        <v>-0.002944526802697081</v>
       </c>
       <c r="D63">
-        <v>0.008068218756220772</v>
+        <v>-0.05192793743526181</v>
       </c>
       <c r="E63">
-        <v>-0.001063168615125128</v>
+        <v>-0.02260192197261743</v>
       </c>
       <c r="F63">
-        <v>0.04585790064664418</v>
+        <v>0.004999787551329327</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09564928790645179</v>
+        <v>-0.1117124173566138</v>
       </c>
       <c r="C64">
-        <v>0.02059304983680476</v>
+        <v>-0.01124079440205269</v>
       </c>
       <c r="D64">
-        <v>0.001937874620646993</v>
+        <v>-0.04387907928891996</v>
       </c>
       <c r="E64">
-        <v>-0.007727160368907678</v>
+        <v>-0.02078334182824024</v>
       </c>
       <c r="F64">
-        <v>-0.06353039131302435</v>
+        <v>0.02557831371090775</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1123798928742427</v>
+        <v>-0.1458938427397445</v>
       </c>
       <c r="C65">
-        <v>-0.008697344710439731</v>
+        <v>-0.03120855584808948</v>
       </c>
       <c r="D65">
-        <v>0.009408549333571855</v>
+        <v>0.0429071928463902</v>
       </c>
       <c r="E65">
-        <v>-0.00456181565719934</v>
+        <v>0.001277382518185925</v>
       </c>
       <c r="F65">
-        <v>0.05745965377957267</v>
+        <v>0.04814164680096111</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1431317684775907</v>
+        <v>-0.1287230031917214</v>
       </c>
       <c r="C66">
-        <v>0.1302722785935381</v>
+        <v>-0.01468901257595452</v>
       </c>
       <c r="D66">
-        <v>0.05550462704084171</v>
+        <v>-0.1426845962640006</v>
       </c>
       <c r="E66">
-        <v>-0.1205500242011596</v>
+        <v>-0.06944649199025053</v>
       </c>
       <c r="F66">
-        <v>-0.02051700109192676</v>
+        <v>0.03012365509632289</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06588737867984848</v>
+        <v>-0.06211143422955606</v>
       </c>
       <c r="C67">
-        <v>0.04570042141412915</v>
+        <v>-0.003250912051257664</v>
       </c>
       <c r="D67">
-        <v>0.08531114305329514</v>
+        <v>-0.05320946777999407</v>
       </c>
       <c r="E67">
-        <v>0.01714206424536146</v>
+        <v>-0.01748160471679895</v>
       </c>
       <c r="F67">
-        <v>-0.02436839941613162</v>
+        <v>-0.0408419507148919</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.09821948398569774</v>
+        <v>-0.1171711750831569</v>
       </c>
       <c r="C68">
-        <v>-0.2675428695697539</v>
+        <v>-0.02681908543028248</v>
       </c>
       <c r="D68">
-        <v>0.006589027251308483</v>
+        <v>0.2613351989870873</v>
       </c>
       <c r="E68">
-        <v>-0.04042226739521354</v>
+        <v>0.08787731414852967</v>
       </c>
       <c r="F68">
-        <v>0.0315815986222089</v>
+        <v>0.03249693318232676</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03315683563600113</v>
+        <v>-0.03931854046053512</v>
       </c>
       <c r="C69">
-        <v>-0.004799663696813657</v>
+        <v>-0.0009829197118132386</v>
       </c>
       <c r="D69">
-        <v>0.03294730610345439</v>
+        <v>-0.00969158427862651</v>
       </c>
       <c r="E69">
-        <v>0.0005789164523343494</v>
+        <v>-0.02417391740390852</v>
       </c>
       <c r="F69">
-        <v>-0.01665501300027095</v>
+        <v>-0.01064446331570253</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03272239630289935</v>
+        <v>-0.06243821810212265</v>
       </c>
       <c r="C70">
-        <v>-0.006100086012270647</v>
+        <v>0.0283610242174412</v>
       </c>
       <c r="D70">
-        <v>0.04231938441250762</v>
+        <v>-0.02998269032079449</v>
       </c>
       <c r="E70">
-        <v>-0.03921299457237357</v>
+        <v>0.05075190248055499</v>
       </c>
       <c r="F70">
-        <v>-0.03519858735191009</v>
+        <v>-0.2747397406641563</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1151766169983839</v>
+        <v>-0.1364939472082712</v>
       </c>
       <c r="C71">
-        <v>-0.2891666930219625</v>
+        <v>-0.03108806653994114</v>
       </c>
       <c r="D71">
-        <v>0.02144021089020793</v>
+        <v>0.2764013565700804</v>
       </c>
       <c r="E71">
-        <v>-0.03247851410041797</v>
+        <v>0.09629506818622792</v>
       </c>
       <c r="F71">
-        <v>-0.01492911727196742</v>
+        <v>0.03825618464314388</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1435259666551205</v>
+        <v>-0.140716659158844</v>
       </c>
       <c r="C72">
-        <v>0.004520772367891402</v>
+        <v>-0.02469921100171535</v>
       </c>
       <c r="D72">
-        <v>9.481756573994336e-05</v>
+        <v>-0.005064888356772827</v>
       </c>
       <c r="E72">
-        <v>0.01444259825574886</v>
+        <v>-0.04532328011985891</v>
       </c>
       <c r="F72">
-        <v>0.009764452099636455</v>
+        <v>0.02382056216297786</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2254881973768597</v>
+        <v>-0.2032076392857251</v>
       </c>
       <c r="C73">
-        <v>0.03350905554775283</v>
+        <v>-0.01174788321635201</v>
       </c>
       <c r="D73">
-        <v>0.0494646926984649</v>
+        <v>-0.01633038544617628</v>
       </c>
       <c r="E73">
-        <v>-0.06610022742594127</v>
+        <v>-0.0626954598892991</v>
       </c>
       <c r="F73">
-        <v>-0.118375153419843</v>
+        <v>0.03180263239940322</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1187641916545061</v>
+        <v>-0.09471890431226432</v>
       </c>
       <c r="C74">
-        <v>0.05611349588699512</v>
+        <v>-0.01227960100972199</v>
       </c>
       <c r="D74">
-        <v>0.02620858551346427</v>
+        <v>-0.0207055993907436</v>
       </c>
       <c r="E74">
-        <v>0.005633090692136215</v>
+        <v>-0.0483055212155171</v>
       </c>
       <c r="F74">
-        <v>-0.01971908062366116</v>
+        <v>0.04853419514082419</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1171159629106327</v>
+        <v>-0.1294718856204031</v>
       </c>
       <c r="C75">
-        <v>0.05035825767806636</v>
+        <v>-0.02652834892554928</v>
       </c>
       <c r="D75">
-        <v>0.006443065099745467</v>
+        <v>-0.03456003617697868</v>
       </c>
       <c r="E75">
-        <v>0.01036887879913434</v>
+        <v>-0.06057886819704626</v>
       </c>
       <c r="F75">
-        <v>0.004744678361074241</v>
+        <v>0.01319222336297338</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02126263684922415</v>
+        <v>-0.003803445892816118</v>
       </c>
       <c r="C76">
-        <v>-0.01861075025364841</v>
+        <v>-0.0009073766295084102</v>
       </c>
       <c r="D76">
-        <v>0.01271065703852542</v>
+        <v>0.002960034137707474</v>
       </c>
       <c r="E76">
-        <v>-0.01127245978782696</v>
+        <v>-0.000260653804934519</v>
       </c>
       <c r="F76">
-        <v>-0.01696477657901283</v>
+        <v>0.004195529714164301</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0684605999959296</v>
+        <v>-0.07791874858713801</v>
       </c>
       <c r="C77">
-        <v>0.06196907351965988</v>
+        <v>-0.009105976542982834</v>
       </c>
       <c r="D77">
-        <v>-0.01782843618825541</v>
+        <v>-0.1167938141196471</v>
       </c>
       <c r="E77">
-        <v>0.006552515703007926</v>
+        <v>-0.03867116851648254</v>
       </c>
       <c r="F77">
-        <v>-0.05679147624880784</v>
+        <v>0.03133560277212489</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1194175252335666</v>
+        <v>-0.1041941689253308</v>
       </c>
       <c r="C78">
-        <v>0.04398732814944144</v>
+        <v>-0.04065982976291749</v>
       </c>
       <c r="D78">
-        <v>0.08485535030147745</v>
+        <v>-0.115947942591594</v>
       </c>
       <c r="E78">
-        <v>0.3276280387413008</v>
+        <v>-0.08122575215216889</v>
       </c>
       <c r="F78">
-        <v>0.286151272022439</v>
+        <v>0.06992124629560044</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1356276112712703</v>
+        <v>-0.1640809749924312</v>
       </c>
       <c r="C79">
-        <v>0.04694741059117147</v>
+        <v>-0.0205955179636498</v>
       </c>
       <c r="D79">
-        <v>-0.01467754308260625</v>
+        <v>-0.01947675981115911</v>
       </c>
       <c r="E79">
-        <v>1.626493546033625e-05</v>
+        <v>-0.04950896542791156</v>
       </c>
       <c r="F79">
-        <v>-0.02237799930518429</v>
+        <v>0.004150777034387583</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07824547368645381</v>
+        <v>-0.08067912367934463</v>
       </c>
       <c r="C80">
-        <v>0.07115038558217247</v>
+        <v>0.0009797509629023413</v>
       </c>
       <c r="D80">
-        <v>0.0801797470626</v>
+        <v>-0.0576657806962431</v>
       </c>
       <c r="E80">
-        <v>-0.02710157953603431</v>
+        <v>-0.03677609225548201</v>
       </c>
       <c r="F80">
-        <v>-0.01159754301359676</v>
+        <v>-0.01577410256722448</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1398849777963188</v>
+        <v>-0.1234371083147819</v>
       </c>
       <c r="C81">
-        <v>0.06688281801866522</v>
+        <v>-0.03039417632077994</v>
       </c>
       <c r="D81">
-        <v>0.0145028075285846</v>
+        <v>-0.01866885014462443</v>
       </c>
       <c r="E81">
-        <v>0.008001178992472368</v>
+        <v>-0.05972316955833157</v>
       </c>
       <c r="F81">
-        <v>-0.01714367604215043</v>
+        <v>0.005928976034115492</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1605505801207342</v>
+        <v>-0.164348686760777</v>
       </c>
       <c r="C82">
-        <v>0.04773964563872597</v>
+        <v>-0.02219358951506103</v>
       </c>
       <c r="D82">
-        <v>0.03195273902417821</v>
+        <v>-0.01375744934818497</v>
       </c>
       <c r="E82">
-        <v>-0.02796588342056934</v>
+        <v>-0.03573970496220165</v>
       </c>
       <c r="F82">
-        <v>-0.03676075235668883</v>
+        <v>0.06644609631914372</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08776698133950299</v>
+        <v>-0.06244833868952882</v>
       </c>
       <c r="C83">
-        <v>0.1135972116100823</v>
+        <v>-0.003232159661326049</v>
       </c>
       <c r="D83">
-        <v>-0.0121858295757772</v>
+        <v>-0.05072183223718978</v>
       </c>
       <c r="E83">
-        <v>0.02936337485395348</v>
+        <v>-0.005462620122548614</v>
       </c>
       <c r="F83">
-        <v>0.02753641510058785</v>
+        <v>-0.04275139469732397</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06542038316130902</v>
+        <v>-0.05898463838244878</v>
       </c>
       <c r="C84">
-        <v>-0.01596456790912494</v>
+        <v>-0.01088934023491382</v>
       </c>
       <c r="D84">
-        <v>-0.008137204345919816</v>
+        <v>-0.06473500901110757</v>
       </c>
       <c r="E84">
-        <v>-0.06521393577502063</v>
+        <v>-0.003381341911837006</v>
       </c>
       <c r="F84">
-        <v>-0.06466248505307638</v>
+        <v>0.0114547521838526</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1250123534417039</v>
+        <v>-0.1390183484745443</v>
       </c>
       <c r="C85">
-        <v>0.03600079050049918</v>
+        <v>-0.02615786530129355</v>
       </c>
       <c r="D85">
-        <v>0.01088003102363556</v>
+        <v>-0.01530368001360595</v>
       </c>
       <c r="E85">
-        <v>-0.0005206452986062852</v>
+        <v>-0.04133928713689872</v>
       </c>
       <c r="F85">
-        <v>-0.0397690356714474</v>
+        <v>0.04544513020498293</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1574163816493815</v>
+        <v>-0.09459734182200638</v>
       </c>
       <c r="C86">
-        <v>0.05060719932393514</v>
+        <v>0.006808435464707159</v>
       </c>
       <c r="D86">
-        <v>-0.9357258530873169</v>
+        <v>-0.02300381238600621</v>
       </c>
       <c r="E86">
-        <v>0.06223952563050014</v>
+        <v>-0.1503461021248194</v>
       </c>
       <c r="F86">
-        <v>0.04230542414776739</v>
+        <v>-0.8701489788468758</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1228940003489404</v>
+        <v>-0.09585665911203621</v>
       </c>
       <c r="C87">
-        <v>0.1109333540478109</v>
+        <v>-0.02214719562752569</v>
       </c>
       <c r="D87">
-        <v>0.01135177722194199</v>
+        <v>-0.09013290590740571</v>
       </c>
       <c r="E87">
-        <v>0.0005339040061162457</v>
+        <v>0.05358497880432589</v>
       </c>
       <c r="F87">
-        <v>-0.034278805989674</v>
+        <v>0.08217824981874108</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05210371796860796</v>
+        <v>-0.0608729536786863</v>
       </c>
       <c r="C88">
-        <v>0.03136657475017065</v>
+        <v>-0.002784020464513029</v>
       </c>
       <c r="D88">
-        <v>0.02313629282639262</v>
+        <v>-0.05377540558730642</v>
       </c>
       <c r="E88">
-        <v>-0.05772739103121072</v>
+        <v>-0.02766614600389635</v>
       </c>
       <c r="F88">
-        <v>-0.002560481747678812</v>
+        <v>0.008343718585539797</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1682706413216386</v>
+        <v>-0.1365725719123667</v>
       </c>
       <c r="C89">
-        <v>-0.359809108067983</v>
+        <v>-0.009428770546431844</v>
       </c>
       <c r="D89">
-        <v>0.02050402334340655</v>
+        <v>0.2553173471131109</v>
       </c>
       <c r="E89">
-        <v>0.03694352619469532</v>
+        <v>0.09234862415667167</v>
       </c>
       <c r="F89">
-        <v>-0.02314914917670964</v>
+        <v>0.01724955065270375</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1255010195477381</v>
+        <v>-0.1477889104508896</v>
       </c>
       <c r="C90">
-        <v>-0.2754950686477951</v>
+        <v>-0.02685976547726278</v>
       </c>
       <c r="D90">
-        <v>0.01255206306583392</v>
+        <v>0.2664487972960444</v>
       </c>
       <c r="E90">
-        <v>-0.05026190707237616</v>
+        <v>0.1089290666813594</v>
       </c>
       <c r="F90">
-        <v>-0.01640251810540861</v>
+        <v>0.02119577888488225</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08302086869210329</v>
+        <v>-0.1193618601683328</v>
       </c>
       <c r="C91">
-        <v>0.04213091207759757</v>
+        <v>-0.01680913442982293</v>
       </c>
       <c r="D91">
-        <v>-0.01397210213168557</v>
+        <v>0.007746676287339042</v>
       </c>
       <c r="E91">
-        <v>0.0007111449137282833</v>
+        <v>-0.05723222290680596</v>
       </c>
       <c r="F91">
-        <v>-0.03080901185079681</v>
+        <v>-0.01760472305616634</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1408192140803666</v>
+        <v>-0.1506164505322472</v>
       </c>
       <c r="C92">
-        <v>-0.321953381727606</v>
+        <v>-0.01859799948419905</v>
       </c>
       <c r="D92">
-        <v>0.01630746200348133</v>
+        <v>0.2948039491622548</v>
       </c>
       <c r="E92">
-        <v>0.01431505520827703</v>
+        <v>0.1048736651133596</v>
       </c>
       <c r="F92">
-        <v>-0.0006440399780796791</v>
+        <v>0.01613967000162334</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1297126410940156</v>
+        <v>-0.152123292315792</v>
       </c>
       <c r="C93">
-        <v>-0.3214847571526012</v>
+        <v>-0.0228795206765613</v>
       </c>
       <c r="D93">
-        <v>-0.004698820060271365</v>
+        <v>0.2660396065955325</v>
       </c>
       <c r="E93">
-        <v>-0.07754615424180331</v>
+        <v>0.07600692328257436</v>
       </c>
       <c r="F93">
-        <v>-0.02486762231205647</v>
+        <v>0.01542039306199379</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1389085560009324</v>
+        <v>-0.1327727217307288</v>
       </c>
       <c r="C94">
-        <v>0.05230357543161945</v>
+        <v>-0.0237675168507399</v>
       </c>
       <c r="D94">
-        <v>0.0416906445163467</v>
+        <v>-0.04606103557961311</v>
       </c>
       <c r="E94">
-        <v>0.02087568713328427</v>
+        <v>-0.06096032264545918</v>
       </c>
       <c r="F94">
-        <v>-0.02032405720089792</v>
+        <v>0.0315434243152036</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1126480026645452</v>
+        <v>-0.1248836117996269</v>
       </c>
       <c r="C95">
-        <v>0.02925427155615774</v>
+        <v>-0.005040513743947515</v>
       </c>
       <c r="D95">
-        <v>0.02423395119871223</v>
+        <v>-0.09028397049547518</v>
       </c>
       <c r="E95">
-        <v>0.03792019124686904</v>
+        <v>-0.04453702743425957</v>
       </c>
       <c r="F95">
-        <v>-0.04993622276394715</v>
+        <v>-0.01470396176767249</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01399219519945614</v>
+        <v>-0.09882960191213332</v>
       </c>
       <c r="C96">
-        <v>1.965201268491583e-05</v>
+        <v>0.9888176197930972</v>
       </c>
       <c r="D96">
-        <v>-0.001994084228843903</v>
+        <v>0.03324287515727706</v>
       </c>
       <c r="E96">
-        <v>0.007603719452395527</v>
+        <v>-0.05842641529911257</v>
       </c>
       <c r="F96">
-        <v>0.003297244913047406</v>
+        <v>0.04636115605801019</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.175212198770083</v>
+        <v>-0.1891220531864544</v>
       </c>
       <c r="C97">
-        <v>0.03868528092998155</v>
+        <v>0.01064209949513978</v>
       </c>
       <c r="D97">
-        <v>0.05512245280786833</v>
+        <v>0.008493342581546317</v>
       </c>
       <c r="E97">
-        <v>0.1221822405985767</v>
+        <v>-0.01721460932382344</v>
       </c>
       <c r="F97">
-        <v>0.8528394257250429</v>
+        <v>-0.1578432280505607</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2434374810932337</v>
+        <v>-0.2053716595072228</v>
       </c>
       <c r="C98">
-        <v>0.00601211697224541</v>
+        <v>-0.00704260477446077</v>
       </c>
       <c r="D98">
-        <v>-0.01508221390927691</v>
+        <v>-0.009917710527694077</v>
       </c>
       <c r="E98">
-        <v>0.08654237004334063</v>
+        <v>0.09837509497993187</v>
       </c>
       <c r="F98">
-        <v>-0.01523103475315254</v>
+        <v>-0.1107357015451256</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.03987809626684063</v>
+        <v>-0.0556048365111427</v>
       </c>
       <c r="C99">
-        <v>-0.02000203462684643</v>
+        <v>0.00392353393506767</v>
       </c>
       <c r="D99">
-        <v>0.03673528644998207</v>
+        <v>-0.03618255753105001</v>
       </c>
       <c r="E99">
-        <v>0.02275095919544114</v>
+        <v>-0.02743082452552248</v>
       </c>
       <c r="F99">
-        <v>-0.01096666492907841</v>
+        <v>0.002994345223902071</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.0391544159536498</v>
+        <v>-0.1220287781075209</v>
       </c>
       <c r="C100">
-        <v>0.07691689954830787</v>
+        <v>0.05178402276230566</v>
       </c>
       <c r="D100">
-        <v>0.1998590013892757</v>
+        <v>-0.3499400952885221</v>
       </c>
       <c r="E100">
-        <v>-0.04487868276705183</v>
+        <v>0.8932623486487902</v>
       </c>
       <c r="F100">
-        <v>0.04092272692017472</v>
+        <v>-0.07256175933675867</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03059200606486254</v>
+        <v>-0.02697092557902502</v>
       </c>
       <c r="C101">
-        <v>0.01557652012855667</v>
+        <v>-0.008803255566758936</v>
       </c>
       <c r="D101">
-        <v>0.003090795294094555</v>
+        <v>-0.02951847796126876</v>
       </c>
       <c r="E101">
-        <v>-0.03967773808691311</v>
+        <v>-0.01161746437301425</v>
       </c>
       <c r="F101">
-        <v>-0.03037326602650499</v>
+        <v>-0.01546858287409958</v>
       </c>
     </row>
     <row r="102" spans="1:6">
